--- a/model_exports/labels/2.0_True_False_8_2.xlsx
+++ b/model_exports/labels/2.0_True_False_8_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C729"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,59 +570,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,24 +648,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,20 +674,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,20 +700,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,59 +804,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,20 +869,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -921,33 +921,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,20 +986,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,46 +1012,46 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,72 +1064,72 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,24 +1168,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1194,24 +1194,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,33 +1272,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,33 +1324,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,33 +1363,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,76 +1402,76 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,20 +1480,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,24 +1506,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,46 +1532,46 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,46 +1584,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,20 +1688,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,50 +1714,50 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,46 +1766,46 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,20 +1818,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,33 +1844,33 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,24 +1883,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,33 +1909,33 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,20 +1974,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,33 +2013,33 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,20 +2078,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,50 +2195,50 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,24 +2247,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,20 +2273,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,20 +2338,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,20 +2416,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,33 +2455,33 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,20 +2507,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,24 +2533,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,20 +2559,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,37 +2637,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,11 +2689,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,63 +2702,63 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2767,20 +2767,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,11 +2819,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2832,20 +2832,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,11 +2897,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,20 +3027,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,24 +3053,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,20 +3079,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,33 +3105,33 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,20 +3144,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,37 +3183,37 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,59 +3248,59 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,20 +3313,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,33 +3352,33 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,20 +3391,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,20 +3443,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,33 +3469,33 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,20 +3508,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,24 +3534,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,50 +3599,50 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,50 +3651,50 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,33 +3703,33 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,59 +3768,59 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3859,46 +3859,46 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,11 +3911,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,20 +4041,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,20 +4119,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,24 +4249,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -4275,63 +4275,63 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,24 +4340,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -4366,24 +4366,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,24 +4392,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,27 +4418,27 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,63 +4470,63 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,11 +4535,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4548,33 +4548,33 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,137 +4613,137 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,33 +4769,33 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,33 +4847,33 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,20 +4899,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,63 +4925,63 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4990,33 +4990,33 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,33 +5029,33 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,33 +5107,33 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,20 +5172,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,20 +5211,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,46 +5237,46 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,98 +5289,98 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,20 +5406,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -5458,37 +5458,37 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,11 +5510,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,33 +5523,33 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,50 +5562,50 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,24 +5679,24 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -5705,59 +5705,59 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,76 +5783,76 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,72 +5861,72 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,50 +5939,50 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,20 +5991,20 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,102 +6017,102 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -6121,11 +6121,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -6134,24 +6134,24 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,7 +6160,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,11 +6186,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -6199,50 +6199,50 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6264,20 +6264,20 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,33 +6290,33 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,33 +6459,33 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,24 +6524,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,37 +6550,37 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,63 +6615,63 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,37 +6693,37 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,33 +6732,33 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,24 +6823,24 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,37 +6875,37 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,20 +6992,20 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,24 +7018,24 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,20 +7057,20 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,24 +7083,24 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,20 +7122,20 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,37 +7174,37 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,24 +7226,24 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,59 +7252,59 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,63 +7343,63 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,20 +7408,20 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,24 +7460,24 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>1</v>
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,20 +7512,20 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,11 +7551,11 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,72 +7603,72 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,59 +7720,59 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,72 +7785,72 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,63 +7889,63 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,37 +7954,37 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -7993,37 +7993,37 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,46 +8032,46 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,24 +8123,24 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>0</v>
@@ -8149,33 +8149,33 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,33 +8214,33 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,11 +8253,11 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,20 +8266,20 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,33 +8318,33 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,59 +8383,59 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,20 +8474,20 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,20 +8500,20 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,11 +8591,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,20 +8617,20 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,33 +8695,33 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,11 +8760,11 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,33 +8812,33 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,20 +8916,20 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,24 +8955,24 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,33 +9007,33 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,11 +9137,11 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,33 +9176,33 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,20 +9280,20 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,33 +9332,33 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,37 +9397,37 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C692" t="n">
         <v>1</v>
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,46 +9462,46 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,11 +9514,11 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,24 +9579,24 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,20 +9605,20 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,24 +9631,24 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,37 +9657,37 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,20 +9696,20 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,27 +9774,27 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B720" t="n">
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -9807,39 +9807,39 @@
         <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,13 +9904,39 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B729" t="n">
         <v>1</v>
       </c>
       <c r="C729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>t-833891988315336704</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>t-928096679089209344</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+      <c r="C731" t="n">
         <v>1</v>
       </c>
     </row>
